--- a/2024.2학기 학생별 강의실.xlsx
+++ b/2024.2학기 학생별 강의실.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chois\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pypdf_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{570D11A6-AEC3-43D2-8539-8F13E98828BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161495AB-66B9-4F26-B2B0-259FD34D7662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="5390" windowWidth="25820" windowHeight="15500" xr2:uid="{CB850DE9-9120-4774-BCB5-21A297870FD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="51">
   <si>
     <t>학번</t>
   </si>
@@ -151,12 +151,226 @@
   <si>
     <t>3-E 수업반</t>
   </si>
+  <si>
+    <t>1학년 - 2</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1학년 - 3</t>
+  </si>
+  <si>
+    <t>1학년 - 4</t>
+  </si>
+  <si>
+    <t>1학년 - 5</t>
+  </si>
+  <si>
+    <t>1학년 - 6</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김성규</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1자-수학-김성규</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자-수학-최재혁</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2자-수학-최재혁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>졸-수학-조영재</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3졸-수학-조영재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +392,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -210,21 +438,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE95491-7608-4498-9963-8DF01F6A38D4}">
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="J188" sqref="J188:J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -603,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2101</v>
       </c>
@@ -624,9 +866,11 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2102</v>
       </c>
@@ -651,7 +895,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -674,9 +920,11 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2104</v>
       </c>
@@ -697,7 +945,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -720,9 +970,11 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2106</v>
       </c>
@@ -745,7 +997,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -768,7 +1022,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -793,9 +1049,11 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2109</v>
       </c>
@@ -814,9 +1072,11 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2110</v>
       </c>
@@ -837,7 +1097,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -860,9 +1122,11 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2112</v>
       </c>
@@ -883,7 +1147,9 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -908,9 +1174,11 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2114</v>
       </c>
@@ -931,7 +1199,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -952,7 +1222,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -975,9 +1247,11 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2201</v>
       </c>
@@ -1000,9 +1274,11 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2202</v>
       </c>
@@ -1025,7 +1301,9 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1050,9 +1328,11 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2204</v>
       </c>
@@ -1075,7 +1355,9 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1100,7 +1382,9 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1125,7 +1409,9 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1150,7 +1436,9 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1175,7 +1463,9 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1200,9 +1490,11 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2210</v>
       </c>
@@ -1225,9 +1517,11 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2211</v>
       </c>
@@ -1250,7 +1544,9 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1275,7 +1571,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1300,9 +1598,11 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2214</v>
       </c>
@@ -1323,7 +1623,9 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1348,9 +1650,11 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2301</v>
       </c>
@@ -1373,9 +1677,11 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2302</v>
       </c>
@@ -1398,9 +1704,11 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2303</v>
       </c>
@@ -1423,9 +1731,11 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2304</v>
       </c>
@@ -1448,7 +1758,9 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -1475,9 +1787,11 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2306</v>
       </c>
@@ -1500,7 +1814,9 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -1525,9 +1841,11 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2308</v>
       </c>
@@ -1550,7 +1868,9 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1575,7 +1895,9 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -1600,7 +1922,9 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -1625,7 +1949,9 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1650,7 +1976,9 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -1675,9 +2003,11 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2314</v>
       </c>
@@ -1700,9 +2030,11 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K46" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2315</v>
       </c>
@@ -1725,7 +2057,9 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -1750,9 +2084,11 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2401</v>
       </c>
@@ -1775,7 +2111,9 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -1802,7 +2140,9 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -1829,9 +2169,11 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K51" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2404</v>
       </c>
@@ -1856,7 +2198,9 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="K52" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
@@ -1883,7 +2227,9 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -1910,7 +2256,9 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -1939,9 +2287,11 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K55" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2408</v>
       </c>
@@ -1966,9 +2316,11 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K56" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2409</v>
       </c>
@@ -1991,7 +2343,9 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -2018,9 +2372,11 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K58" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2411</v>
       </c>
@@ -2043,7 +2399,9 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -2070,7 +2428,9 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="61" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -2097,7 +2457,9 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="K61" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
@@ -2124,7 +2486,9 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
@@ -2151,7 +2515,9 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="K63" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
@@ -2178,9 +2544,11 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K64" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2501</v>
       </c>
@@ -2203,7 +2571,9 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="K65" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
@@ -2228,9 +2598,11 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K66" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2503</v>
       </c>
@@ -2253,9 +2625,11 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K67" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2504</v>
       </c>
@@ -2276,9 +2650,11 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K68" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>2505</v>
       </c>
@@ -2301,9 +2677,11 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K69" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2506</v>
       </c>
@@ -2328,7 +2706,9 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="K70" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -2355,9 +2735,11 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K71" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2508</v>
       </c>
@@ -2380,7 +2762,9 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
@@ -2403,9 +2787,11 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K73" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>2510</v>
       </c>
@@ -2430,9 +2816,11 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K74" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>2511</v>
       </c>
@@ -2455,9 +2843,11 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K75" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>2512</v>
       </c>
@@ -2480,9 +2870,11 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K76" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2513</v>
       </c>
@@ -2505,9 +2897,11 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K77" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2514</v>
       </c>
@@ -2530,9 +2924,11 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K78" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>2515</v>
       </c>
@@ -2555,9 +2951,11 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K79" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>2601</v>
       </c>
@@ -2582,9 +2980,11 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K80" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>2602</v>
       </c>
@@ -2609,9 +3009,11 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K81" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>2603</v>
       </c>
@@ -2634,9 +3036,11 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K82" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2604</v>
       </c>
@@ -2657,9 +3061,11 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K83" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2605</v>
       </c>
@@ -2684,9 +3090,11 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K84" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2606</v>
       </c>
@@ -2709,9 +3117,11 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K85" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>2607</v>
       </c>
@@ -2734,9 +3144,11 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K86" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>2608</v>
       </c>
@@ -2759,9 +3171,11 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K87" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2609</v>
       </c>
@@ -2784,9 +3198,11 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K88" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2610</v>
       </c>
@@ -2809,9 +3225,11 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K89" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2611</v>
       </c>
@@ -2834,9 +3252,11 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K90" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2612</v>
       </c>
@@ -2859,9 +3279,11 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K91" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>2613</v>
       </c>
@@ -2882,9 +3304,11 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K92" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>2614</v>
       </c>
@@ -2907,9 +3331,11 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K93" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>2615</v>
       </c>
@@ -2932,9 +3358,11 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K94" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3101</v>
       </c>
@@ -2959,9 +3387,11 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K95" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>3102</v>
       </c>
@@ -2986,7 +3416,9 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
+      <c r="K96" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="97" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
@@ -3011,7 +3443,9 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="K97" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="98" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
@@ -3038,7 +3472,9 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="K98" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="99" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
@@ -3063,7 +3499,9 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="K99" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="100" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
@@ -3090,7 +3528,9 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="K100" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="101" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
@@ -3115,7 +3555,9 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="K101" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="102" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
@@ -3142,7 +3584,9 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
+      <c r="K102" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="103" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
@@ -3169,7 +3613,9 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="K103" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="104" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
@@ -3200,7 +3646,9 @@
         <v>17</v>
       </c>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="K104" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="105" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
@@ -3227,7 +3675,9 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="K105" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="106" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
@@ -3254,7 +3704,9 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="K106" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="107" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
@@ -3285,7 +3737,9 @@
         <v>21</v>
       </c>
       <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="K107" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
@@ -3312,7 +3766,9 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
+      <c r="K108" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="109" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
@@ -3337,7 +3793,9 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="K109" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="110" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
@@ -3362,7 +3820,9 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
+      <c r="K110" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="111" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
@@ -3391,7 +3851,9 @@
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
+      <c r="K111" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
@@ -3418,7 +3880,9 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+      <c r="K112" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="113" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
@@ -3447,7 +3911,9 @@
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
+      <c r="K113" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="114" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
@@ -3472,7 +3938,9 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+      <c r="K114" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
@@ -3497,7 +3965,9 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
+      <c r="K115" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
@@ -3526,7 +3996,9 @@
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
+      <c r="K116" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
@@ -3551,7 +4023,9 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
+      <c r="K117" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="118" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
@@ -3576,7 +4050,9 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
+      <c r="K118" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="119" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
@@ -3603,7 +4079,9 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="K119" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
@@ -3630,7 +4108,9 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
+      <c r="K120" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="121" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
@@ -3663,7 +4143,9 @@
       <c r="J121" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K121" s="2"/>
+      <c r="K121" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="122" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
@@ -3692,7 +4174,9 @@
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
+      <c r="K122" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="123" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
@@ -3721,7 +4205,9 @@
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
+      <c r="K123" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="124" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
@@ -3748,7 +4234,9 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
+      <c r="K124" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="125" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
@@ -3771,7 +4259,9 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
+      <c r="K125" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="126" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
@@ -3800,7 +4290,9 @@
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
+      <c r="K126" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="127" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
@@ -3825,7 +4317,9 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
+      <c r="K127" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="128" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
@@ -3854,7 +4348,9 @@
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
+      <c r="K128" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="129" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
@@ -3879,7 +4375,9 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
+      <c r="K129" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="130" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
@@ -3904,7 +4402,9 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
+      <c r="K130" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="131" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
@@ -3933,7 +4433,9 @@
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
+      <c r="K131" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="132" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
@@ -3960,7 +4462,9 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
+      <c r="K132" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="133" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
@@ -3987,7 +4491,9 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
+      <c r="K133" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="134" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -4014,7 +4520,9 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
+      <c r="K134" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="135" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
@@ -4037,7 +4545,9 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
+      <c r="K135" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="136" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
@@ -4064,7 +4574,9 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
+      <c r="K136" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="137" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
@@ -4091,7 +4603,9 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
+      <c r="K137" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="138" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
@@ -4122,7 +4636,9 @@
         <v>16</v>
       </c>
       <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
+      <c r="K138" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="139" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
@@ -4153,7 +4669,9 @@
         <v>14</v>
       </c>
       <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
+      <c r="K139" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="140" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
@@ -4180,7 +4698,9 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
+      <c r="K140" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="141" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
@@ -4207,7 +4727,9 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
+      <c r="K141" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="142" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
@@ -4232,7 +4754,9 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
+      <c r="K142" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="143" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
@@ -4259,7 +4783,9 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
+      <c r="K143" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="144" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
@@ -4286,7 +4812,9 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
+      <c r="K144" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="145" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
@@ -4311,7 +4839,9 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
+      <c r="K145" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="146" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
@@ -4336,7 +4866,9 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
+      <c r="K146" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="147" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
@@ -4365,7 +4897,9 @@
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
+      <c r="K147" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="148" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
@@ -4392,7 +4926,9 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
+      <c r="K148" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="149" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
@@ -4417,7 +4953,9 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
+      <c r="K149" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="150" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
@@ -4444,7 +4982,9 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
+      <c r="K150" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="151" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
@@ -4473,7 +5013,9 @@
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
+      <c r="K151" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="152" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
@@ -4502,7 +5044,9 @@
       </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
+      <c r="K152" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="153" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
@@ -4527,7 +5071,9 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
+      <c r="K153" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="154" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
@@ -4558,7 +5104,9 @@
         <v>14</v>
       </c>
       <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+      <c r="K154" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="155" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
@@ -4587,7 +5135,9 @@
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
+      <c r="K155" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="156" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
@@ -4614,7 +5164,9 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
+      <c r="K156" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="157" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
@@ -4637,7 +5189,9 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
+      <c r="K157" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="158" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
@@ -4662,7 +5216,9 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
+      <c r="K158" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="159" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
@@ -4685,7 +5241,9 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
+      <c r="K159" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="160" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
@@ -4716,7 +5274,9 @@
         <v>16</v>
       </c>
       <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
+      <c r="K160" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="161" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
@@ -4747,7 +5307,9 @@
         <v>17</v>
       </c>
       <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
+      <c r="K161" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="162" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
@@ -4772,7 +5334,9 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
+      <c r="K162" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="163" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
@@ -4801,7 +5365,9 @@
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
+      <c r="K163" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="164" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
@@ -4830,7 +5396,9 @@
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
+      <c r="K164" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="165" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
@@ -4859,7 +5427,9 @@
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
+      <c r="K165" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="166" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
@@ -4884,7 +5454,9 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
+      <c r="K166" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="167" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
@@ -4911,7 +5483,9 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
+      <c r="K167" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="168" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
@@ -4940,7 +5514,9 @@
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
+      <c r="K168" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="169" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
@@ -4973,7 +5549,9 @@
       <c r="J169" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K169" s="2"/>
+      <c r="K169" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="170" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
@@ -4998,7 +5576,9 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
+      <c r="K170" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="171" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
@@ -5023,7 +5603,9 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
+      <c r="K171" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="172" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
@@ -5048,7 +5630,9 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
+      <c r="K172" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="173" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
@@ -5075,7 +5659,9 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
+      <c r="K173" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="174" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
@@ -5100,7 +5686,9 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
+      <c r="K174" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="175" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
@@ -5127,7 +5715,9 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
+      <c r="K175" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="176" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
@@ -5158,7 +5748,9 @@
         <v>15</v>
       </c>
       <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
+      <c r="K176" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="177" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
@@ -5185,7 +5777,9 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
+      <c r="K177" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="178" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
@@ -5212,7 +5806,9 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
+      <c r="K178" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="179" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
@@ -5237,7 +5833,9 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
+      <c r="K179" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="180" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
@@ -5262,7 +5860,9 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
+      <c r="K180" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="181" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
@@ -5289,7 +5889,9 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
+      <c r="K181" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="182" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
@@ -5316,7 +5918,9 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
+      <c r="K182" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="183" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
@@ -5343,7 +5947,9 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
+      <c r="K183" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="184" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
@@ -5374,7 +5980,9 @@
         <v>21</v>
       </c>
       <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
+      <c r="K184" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="185" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
@@ -5401,7 +6009,9 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
+      <c r="K185" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="186" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
@@ -5428,10 +6038,1068 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
-      <c r="K186" s="2"/>
+      <c r="K186" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="32" x14ac:dyDescent="0.45">
+      <c r="A187" s="3">
+        <v>1101</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="32" x14ac:dyDescent="0.45">
+      <c r="A188" s="3">
+        <v>1102</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="27" x14ac:dyDescent="0.45">
+      <c r="A189" s="3">
+        <v>1103</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="27" x14ac:dyDescent="0.45">
+      <c r="A190" s="3">
+        <v>1104</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="27" x14ac:dyDescent="0.45">
+      <c r="A191" s="3">
+        <v>1105</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="27" x14ac:dyDescent="0.45">
+      <c r="A192" s="3">
+        <v>1106</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A193" s="3">
+        <v>1107</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A194" s="3">
+        <v>1108</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A195" s="3">
+        <v>1109</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A196" s="3">
+        <v>1110</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A197" s="3">
+        <v>1111</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A198" s="3">
+        <v>1112</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A199" s="3">
+        <v>1113</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A200" s="3">
+        <v>1114</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A201" s="3">
+        <v>1115</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A202" s="3">
+        <v>1116</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>1201</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>1202</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>1203</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>1204</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>1206</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>1207</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>1208</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>1209</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>1210</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>1212</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>1213</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>1214</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>1215</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>1216</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>1301</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>1302</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>1303</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>1304</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>1305</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>1306</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>1307</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>1308</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>1309</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>1310</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>1311</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>1312</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>1313</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>1314</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>1315</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>1316</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>1401</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>1402</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>1403</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>1404</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>1405</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>1406</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>1407</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>1408</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>1409</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>1410</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>1411</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>1412</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>1413</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>1414</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>1415</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>1416</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>1501</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>1502</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>1503</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>1504</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>1505</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>1506</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>1507</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>1508</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>1509</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>1510</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>1511</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>1512</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>1513</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>1514</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>1515</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>1516</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>1601</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>1602</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>1603</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>1604</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>1605</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>1606</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>1607</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>1608</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>1609</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>1610</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>1611</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>1612</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>1613</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>1614</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>1615</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>1616</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>